--- a/Imersão Python - Tabela de ações.xlsx
+++ b/Imersão Python - Tabela de ações.xlsx
@@ -3965,11 +3965,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="386862441"/>
-        <c:axId val="660666803"/>
+        <c:axId val="2112169218"/>
+        <c:axId val="929102214"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="386862441"/>
+        <c:axId val="2112169218"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4021,10 +4021,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="660666803"/>
+        <c:crossAx val="929102214"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="660666803"/>
+        <c:axId val="929102214"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4099,9 +4099,829 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386862441"/>
+        <c:crossAx val="2112169218"/>
         <c:crosses val="max"/>
       </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Variação $ versus Análise por faixa etária</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Análises'!$B$58</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análises'!$A$59:$A$61</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análises'!$B$59:$B$61</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="2062678006"/>
+        <c:axId val="791383637"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2062678006"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Análise por faixa etária</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="791383637"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="791383637"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Variação $</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2062678006"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Quantidade de empresas versus Análise por faixa etária</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Análises'!$C$58</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análises'!$A$59:$A$61</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análises'!$C$59:$C$61</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="471103629"/>
+        <c:axId val="1237181920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="471103629"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Análise por faixa etária</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1237181920"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1237181920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Quantidade de empresas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471103629"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Variação versus Segmento</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Análises'!$B$10</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="34A853"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF6D01"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="46BDC6"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7BAAF7"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F07B72"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FCD04F"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="71C287"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF994D"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7ED1D7"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="B3CEFB"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F7B4AE"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FDE49B"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="AEDCBA"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC599"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="B5E5E8"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ECF3FE"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FDECEB"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFF8E6"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EBF6EE"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFF0E6"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EDF8F9"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="251701"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="032527"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000C31"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="281021"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF1C32"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="240C0A"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="5E3C05"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0A5D64"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="32"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="01217D"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="652B55"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análises'!$A$11:$A$44</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análises'!$B$11:$B$44</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -4177,6 +4997,81 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 4" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 5" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
